--- a/mouse_data_analysis/input/experiment_to_msdial_data_map_in_vivo.xlsx
+++ b/mouse_data_analysis/input/experiment_to_msdial_data_map_in_vivo.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shuohan/git/metabolomics_paper/mouse_analysis/Mouse_data_input_files/final_input_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shuohan/Dropbox/mouse_analysis_pipeline_revision_input/mockup_input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD47A02-0ED1-C049-9ED0-E1EED1B01101}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE7D7C0-BAFC-D34C-9219-22C19727368A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14860" yWindow="3940" windowWidth="27600" windowHeight="18820" xr2:uid="{129F7232-C780-7743-A245-33A607F0754D}"/>
+    <workbookView xWindow="10680" yWindow="720" windowWidth="34360" windowHeight="25220" xr2:uid="{129F7232-C780-7743-A245-33A607F0754D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="53">
   <si>
     <t>chromatography</t>
   </si>
@@ -154,6 +154,36 @@
   </si>
   <si>
     <t>20200229_conv_serum</t>
+  </si>
+  <si>
+    <t>20201204_mono_feces</t>
+  </si>
+  <si>
+    <t>20201204_mono_cecal</t>
+  </si>
+  <si>
+    <t>20201204_mono_urine</t>
+  </si>
+  <si>
+    <t>20201204_mono_serum</t>
+  </si>
+  <si>
+    <t>collection_time</t>
+  </si>
+  <si>
+    <t>mono-colonization_2</t>
+  </si>
+  <si>
+    <t>20210128_mono_feces</t>
+  </si>
+  <si>
+    <t>20210128_mono_cecal</t>
+  </si>
+  <si>
+    <t>20210128_mono_urine</t>
+  </si>
+  <si>
+    <t>20210128_mono_serum</t>
   </si>
   <si>
     <t>c18pos_in_vivo_msdial_data.xlsx</t>
@@ -169,10 +199,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -514,20 +550,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67375BF1-7F53-1F4C-A8D0-E88561C89857}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
-    <col min="5" max="5" width="46.1640625" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -546,8 +582,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -561,13 +600,16 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -581,13 +623,16 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -601,13 +646,16 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -621,13 +669,16 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -641,13 +692,16 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -661,13 +715,16 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -681,13 +738,16 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -701,13 +761,16 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -721,13 +784,16 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -741,13 +807,16 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -761,13 +830,16 @@
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -781,13 +853,16 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -801,13 +876,16 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -821,13 +899,16 @@
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -841,13 +922,16 @@
         <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -861,13 +945,16 @@
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -881,13 +968,16 @@
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -901,13 +991,16 @@
         <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -921,13 +1014,16 @@
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -941,13 +1037,16 @@
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -961,13 +1060,16 @@
         <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -981,13 +1083,16 @@
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1001,13 +1106,16 @@
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1021,13 +1129,16 @@
         <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1041,13 +1152,16 @@
         <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1061,13 +1175,16 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1081,13 +1198,16 @@
         <v>14</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1101,13 +1221,16 @@
         <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F29" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -1121,13 +1244,16 @@
         <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F30" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -1141,13 +1267,16 @@
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1161,13 +1290,16 @@
         <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -1181,13 +1313,16 @@
         <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -1201,13 +1336,16 @@
         <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F34" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -1221,13 +1359,16 @@
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F35" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -1241,13 +1382,16 @@
         <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F36" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -1261,14 +1405,570 @@
         <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F37" t="s">
         <v>39</v>
       </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" t="s">
+        <v>43</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" t="s">
+        <v>41</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49" t="s">
+        <v>43</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" t="s">
+        <v>46</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
+        <v>50</v>
+      </c>
+      <c r="F51" t="s">
+        <v>47</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" t="s">
+        <v>50</v>
+      </c>
+      <c r="F52" t="s">
+        <v>48</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>50</v>
+      </c>
+      <c r="F53" t="s">
+        <v>49</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>51</v>
+      </c>
+      <c r="F54" t="s">
+        <v>46</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" t="s">
+        <v>51</v>
+      </c>
+      <c r="F55" t="s">
+        <v>47</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s">
+        <v>51</v>
+      </c>
+      <c r="F56" t="s">
+        <v>48</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" t="s">
+        <v>51</v>
+      </c>
+      <c r="F57" t="s">
+        <v>49</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>52</v>
+      </c>
+      <c r="F58" t="s">
+        <v>46</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59" t="s">
+        <v>47</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60" t="s">
+        <v>48</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s">
+        <v>52</v>
+      </c>
+      <c r="F61" t="s">
+        <v>49</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F37" xr:uid="{6153C3E8-62E9-FF4F-AD32-581B22311110}"/>
+  <autoFilter ref="A1:G1" xr:uid="{F5B21532-95C2-3648-83A4-4E26D4FCE880}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>